--- a/TestData/Weather.xlsx
+++ b/TestData/Weather.xlsx
@@ -161,36 +161,9 @@
     <t>https://macedonia.syngenta.com</t>
   </si>
   <si>
-    <t>https://www.floriproservices.com</t>
-  </si>
-  <si>
     <t>https://www.syngenta.com.eg</t>
   </si>
   <si>
-    <t>https://www.floriproservices.it</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.es</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.se</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.co.uk</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.fr/</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.de</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.nl</t>
-  </si>
-  <si>
-    <t>https://www.floriproservices.pl</t>
-  </si>
-  <si>
     <t>https://www.greencast.com.au</t>
   </si>
   <si>
@@ -216,6 +189,33 @@
   </si>
   <si>
     <t>https://www.syngenta.lv</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.com</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.it</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.es</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.se</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.fr/</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.de</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.nl</t>
+  </si>
+  <si>
+    <t>https://www.syngentaflowers.pl</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,98 +816,98 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
+      <c r="A52" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
+      <c r="A53" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
+      <c r="A54" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
+      <c r="A55" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -915,6 +915,15 @@
     <hyperlink ref="A64" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A20" r:id="rId3"/>
+    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A48" r:id="rId5"/>
+    <hyperlink ref="A49" r:id="rId6"/>
+    <hyperlink ref="A50" r:id="rId7"/>
+    <hyperlink ref="A51" r:id="rId8"/>
+    <hyperlink ref="A52" r:id="rId9"/>
+    <hyperlink ref="A53" r:id="rId10"/>
+    <hyperlink ref="A54" r:id="rId11"/>
+    <hyperlink ref="A55" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
